--- a/biology/Botanique/Beurré_de_Ramegnies/Beurré_de_Ramegnies.xlsx
+++ b/biology/Botanique/Beurré_de_Ramegnies/Beurré_de_Ramegnies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Ramegnies</t>
+          <t>Beurré_de_Ramegnies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Beurré de Ramegnies est une variété de poire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Ramegnies</t>
+          <t>Beurré_de_Ramegnies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variété a été obtenue vers 1835 par Norbert Bouzin, doyen de Ramegnies-Chin, près de Tournai en Belgique et de Lille (Nord de la France)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété a été obtenue vers 1835 par Norbert Bouzin, doyen de Ramegnies-Chin, près de Tournai en Belgique et de Lille (Nord de la France).
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Ramegnies</t>
+          <t>Beurré_de_Ramegnies</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,25 +556,164 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vigueur fertilité : arbre vigoureux en tête, très rameux, à rameaux étalés dressés.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vigueur fertilité : arbre vigoureux en tête, très rameux, à rameaux étalés dressés.
 Scions : droits, allongés, bruns-roux.
 Bourgeons : très gros, ovales, écartés du scion, duveteux, roussâtres.
-Boutons à fruit : gros, ovales, roux-jaunâtre[1].
-Feuilles
-Forme : ovales, comme cordées à la base, obscurément crénelées, longuement pétiolées[1].
-Fleurs
-Elles sont ordinaires et portent des pétales ovales[1].
-Fruit
-Piridion : assez gros, turbiné, un peu allongé vers le sommet, à base large.
+Boutons à fruit : gros, ovales, roux-jaunâtre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beurré_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Forme : ovales, comme cordées à la base, obscurément crénelées, longuement pétiolées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Beurré_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont ordinaires et portent des pétales ovales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Beurré_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Piridion : assez gros, turbiné, un peu allongé vers le sommet, à base large.
 Pédoncule : assez long, légèrement ombiliqué.
 Calice : affleurant, large, à sépales courts, dressés.
 Peau : vert jaunâtre, lavée de rouge du côté du soleil, roussâtre dans sa partie supérieure.
 Chair beurrée : fondante, très-juteuse, sucrée, parfumée, très bonne.
-Maturité : octobre[1].
-Culture
-Pour plein vent et pyramide[1].
+Maturité : octobre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Beurré_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_de_Ramegnies</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour plein vent et pyramide.
 </t>
         </is>
       </c>
